--- a/data/trans_bre/P36B13_R-Clase-trans_bre.xlsx
+++ b/data/trans_bre/P36B13_R-Clase-trans_bre.xlsx
@@ -592,13 +592,13 @@
         <v>-1.599436602617464</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>-2.718061111278508</v>
+        <v>-2.718061111278509</v>
       </c>
       <c r="E4" s="6" t="n">
         <v>-0.260912853237913</v>
       </c>
       <c r="F4" s="6" t="n">
-        <v>-0.5251838841946538</v>
+        <v>-0.5251838841946539</v>
       </c>
     </row>
     <row r="5">
@@ -609,16 +609,16 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-4.69158631671069</v>
+        <v>-4.542726218359898</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-5.475165096607265</v>
+        <v>-5.258365607831809</v>
       </c>
       <c r="E5" s="6" t="n">
-        <v>-0.597654856823934</v>
+        <v>-0.5998873432403713</v>
       </c>
       <c r="F5" s="6" t="n">
-        <v>-0.7745048804503586</v>
+        <v>-0.770155064695395</v>
       </c>
     </row>
     <row r="6">
@@ -629,16 +629,16 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.723194151413505</v>
+        <v>1.534428382374308</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-0.6381779449574386</v>
+        <v>-0.3573803315426703</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>0.4762849689152009</v>
+        <v>0.3707389695513977</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>-0.135773641684073</v>
+        <v>-0.09531654788867684</v>
       </c>
     </row>
     <row r="7">
@@ -656,13 +656,13 @@
         <v>-1.002031695727736</v>
       </c>
       <c r="D7" s="5" t="n">
-        <v>-0.7502887229587474</v>
+        <v>-0.750288722958748</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>-0.1082566519438947</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>-0.1343961967329395</v>
+        <v>-0.1343961967329396</v>
       </c>
     </row>
     <row r="8">
@@ -673,16 +673,16 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-5.0461130728624</v>
+        <v>-4.897898726329855</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-4.655452239314119</v>
+        <v>-4.617006137954839</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.4532484237862011</v>
+        <v>-0.4258935973498403</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.5735625714035621</v>
+        <v>-0.5856075264324073</v>
       </c>
     </row>
     <row r="9">
@@ -693,16 +693,16 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>3.231150984417478</v>
+        <v>3.305018205561646</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>2.572477419724163</v>
+        <v>2.67483607839478</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.4956791190216596</v>
+        <v>0.4762333122709173</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.7352882987893553</v>
+        <v>0.7879503081171607</v>
       </c>
     </row>
     <row r="10">
@@ -737,16 +737,16 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-6.403900778896854</v>
+        <v>-5.96835885377415</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-8.676377557508149</v>
+        <v>-9.197425963572318</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>-0.5381890015939006</v>
+        <v>-0.522675930528788</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>-0.8877253532385709</v>
+        <v>-0.8907209551890183</v>
       </c>
     </row>
     <row r="12">
@@ -757,16 +757,16 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>4.248106146809915</v>
+        <v>4.244584378397058</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>-1.861162497019535</v>
+        <v>-2.166424808635937</v>
       </c>
       <c r="E12" s="6" t="n">
-        <v>0.4635605950707081</v>
+        <v>0.4681788934433574</v>
       </c>
       <c r="F12" s="6" t="n">
-        <v>-0.2010979358361025</v>
+        <v>-0.2652069810493794</v>
       </c>
     </row>
     <row r="13">
@@ -784,13 +784,13 @@
         <v>-1.179398210577093</v>
       </c>
       <c r="D13" s="5" t="n">
-        <v>-4.334255168699771</v>
+        <v>-4.33425516869977</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.09486514972394586</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>-0.493201740990772</v>
+        <v>-0.4932017409907719</v>
       </c>
     </row>
     <row r="14">
@@ -801,16 +801,16 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-4.114602770448808</v>
+        <v>-4.136573542147208</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-6.696551368495926</v>
+        <v>-6.794344043570194</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>-0.2899172508124586</v>
+        <v>-0.3005955840091727</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.6426619432869766</v>
+        <v>-0.6557471745716033</v>
       </c>
     </row>
     <row r="15">
@@ -821,16 +821,16 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.701886434062829</v>
+        <v>1.576946036161057</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>-1.838703317503838</v>
+        <v>-1.708661318557106</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>0.1576893904022957</v>
+        <v>0.1342278385379064</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>-0.2237041290698097</v>
+        <v>-0.2126016138656018</v>
       </c>
     </row>
     <row r="16">
@@ -865,16 +865,16 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-11.46008248632287</v>
+        <v>-11.29262318524494</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-6.753540286876583</v>
+        <v>-6.614610878771418</v>
       </c>
       <c r="E17" s="6" t="n">
-        <v>-0.6540536116503414</v>
+        <v>-0.6566570017662825</v>
       </c>
       <c r="F17" s="6" t="n">
-        <v>-0.729092777602205</v>
+        <v>-0.7181360415459394</v>
       </c>
     </row>
     <row r="18">
@@ -885,16 +885,16 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-4.616681491160564</v>
+        <v>-4.323504315274641</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>-1.420886731980612</v>
+        <v>-1.332745822827927</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>-0.3328028532645187</v>
+        <v>-0.3356880748037035</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>-0.2543865247960396</v>
+        <v>-0.2443841137983025</v>
       </c>
     </row>
     <row r="19">
@@ -929,16 +929,16 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>-22.04586032414824</v>
+        <v>-22.75286493953698</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>-15.14622601621293</v>
+        <v>-15.33042619879659</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.7955552304120699</v>
+        <v>-0.8065612880116512</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.7871615924342593</v>
+        <v>-0.8055247935558766</v>
       </c>
     </row>
     <row r="21">
@@ -949,16 +949,16 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>-11.72629776371381</v>
+        <v>-11.47883523383987</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>-1.164114214200431</v>
+        <v>-1.441694750691815</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>-0.6164119800497524</v>
+        <v>-0.6151285606628142</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>-0.1841313927627543</v>
+        <v>-0.2101835796836462</v>
       </c>
     </row>
     <row r="22">
@@ -976,13 +976,13 @@
         <v>-4.539734875973893</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>-3.602729449328624</v>
+        <v>-3.602729449328623</v>
       </c>
       <c r="E22" s="6" t="n">
         <v>-0.3656458534543916</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>-0.4839905716956941</v>
+        <v>-0.483990571695694</v>
       </c>
     </row>
     <row r="23">
@@ -993,16 +993,16 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-6.038314681922234</v>
+        <v>-5.973083146593593</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-4.853436739740095</v>
+        <v>-4.841526012464298</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>-0.4523818746379015</v>
+        <v>-0.4526417606032799</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>-0.5839868278803875</v>
+        <v>-0.5805238856390889</v>
       </c>
     </row>
     <row r="24">
@@ -1013,16 +1013,16 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-3.002588544465929</v>
+        <v>-3.112379626532431</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>-2.417384818465313</v>
+        <v>-2.341583135123995</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>-0.2590251380726393</v>
+        <v>-0.2710099751181072</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>-0.359365352601288</v>
+        <v>-0.3534985039380646</v>
       </c>
     </row>
     <row r="25">
